--- a/信息查询助手示例数据.xlsx
+++ b/信息查询助手示例数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wd-git\_runner\models\闻达管家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wd_butler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB62FC-808E-48D9-9AE8-1858432C46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B53C8C-17C6-4992-B466-45585DAEBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="-120" windowWidth="22500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -57,18 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eval:formatDateTime(new Date(), 'yyyy年MM月dd日')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,11 +69,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
+    <t>当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开百度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +415,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,35 +458,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/信息查询助手示例数据.xlsx
+++ b/信息查询助手示例数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wd_butler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B53C8C-17C6-4992-B466-45585DAEBFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68708EB-D8E5-4AEF-9D31-9DC47F21C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="-120" windowWidth="22500" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -37,26 +37,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>家庭住址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>啊啊啊啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>eval:formatDateTime(new Date(), 'yyyy年MM月dd日')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +66,18 @@
   </si>
   <si>
     <t>打开百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊1啊2啊3啊4啊5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -436,57 +436,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>1233333333</v>
+        <v>123356376</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>53754876587</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
